--- a/CS_Checklist.xlsx
+++ b/CS_Checklist.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESMI OA\Desktop\CS Checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moong\Documents\JF2-생산 이슈리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7BB1555-B5A7-478F-9B01-611001F65C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="76">
   <si>
     <t>Process</t>
   </si>
@@ -153,12 +165,111 @@
   </si>
   <si>
     <t>Equipment</t>
+  </si>
+  <si>
+    <t>COT</t>
+  </si>
+  <si>
+    <t>INK MARKER</t>
+  </si>
+  <si>
+    <t>프린터 헤드 상태 확인(노즐, 대전판, 굴절판, 거터 잉크 묻음 확인)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소모품 상태 확인 (INK/MAKEUP) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">마킹기 주변 ink 누수 육안 확인 </t>
+  </si>
+  <si>
+    <t>R/P</t>
+  </si>
+  <si>
+    <t>NG Vision</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>호일연결부 전/후에 정상 불량구간 등록 여부 확인(MES)</t>
+  </si>
+  <si>
+    <t>미코팅 전/후에 정상적으로 불량구간 등록 여부 확인(MES)</t>
+  </si>
+  <si>
+    <t>검사불량 위치에 정상적으로 불량 구간 등록 여부 확인 (MES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기준점 마킹률 관리 </t>
+  </si>
+  <si>
+    <t>검사 불량 미수신 점검 (SPC 비교)</t>
+  </si>
+  <si>
+    <t>불량 구간 관리 (TAG_SECTION 수정 및 관리)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">조명 상태 확인, 오염 시 클리닝 </t>
+  </si>
+  <si>
+    <t>비전 ROI/초점/조리개 확인</t>
+  </si>
+  <si>
+    <t>이미지 인식률 점검 (OCR 로그 확인)</t>
+  </si>
+  <si>
+    <t>OCR Vision</t>
+  </si>
+  <si>
+    <t>PET sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정상 작동 여부 확인 (MES) </t>
+  </si>
+  <si>
+    <t>UW encoder</t>
+  </si>
+  <si>
+    <t>엔코더 정상 작동 여부 확인(코터/롤프레스 기준점 간격 확인)</t>
+  </si>
+  <si>
+    <t>엔코더 정상 작동 여부 확인(스크랩 길이 정합성 확인)</t>
+  </si>
+  <si>
+    <t>구간 도달 시 불량위치에 정상 감속 후 정지 확인 (특히 미코팅 및 호일연결부)</t>
+  </si>
+  <si>
+    <t>비전 알람 발생 확인/불량위치에서 NG 비전에 패턴 인식 후 정지 확인</t>
+  </si>
+  <si>
+    <t>비전 알람 발생 확인/기준점 정상으로 인식하는지 확인</t>
+  </si>
+  <si>
+    <t>롤프레스 비전 불량 single tag_section 생성여부 확인</t>
+  </si>
+  <si>
+    <t>OCR Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">노칭 OCR PC 에서 해당 일자에 정상 폴더 생산 후 이미지 수신 하는지 확인 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">인식률 확인 (MES or Davinci report) </t>
+  </si>
+  <si>
+    <t>OCR PC 에서 해당 일자에 정상 폴더 생산 후 이미지 수신 확인 (from ng vision)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마킹기 알람 확인 (적색 알람 시 조치) </t>
+  </si>
+  <si>
+    <t>마킹 품질 상태 확인 (정상 NG 마킹 및 기준점) 및 시퀀스 On/Off 확인</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -473,18 +584,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1089,6 +1200,384 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CS_Checklist.xlsx
+++ b/CS_Checklist.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moong\Documents\JF2-생산 이슈리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESMI OA\Desktop\CS Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7BB1555-B5A7-478F-9B01-611001F65C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="29076" windowHeight="15756"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="79">
   <si>
     <t>Process</t>
   </si>
@@ -264,12 +263,21 @@
   </si>
   <si>
     <t>마킹 품질 상태 확인 (정상 NG 마킹 및 기준점) 및 시퀀스 On/Off 확인</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Cell Tracking</t>
+  </si>
+  <si>
+    <t>Rollmap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,997 +592,1207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="69" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>12</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>11</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>19</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>15</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>5</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>8</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
         <v>3</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" t="s">
         <v>3</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
         <v>3</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
         <v>16</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
         <v>16</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>1</v>
       </c>
     </row>

--- a/CS_Checklist.xlsx
+++ b/CS_Checklist.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="74">
   <si>
     <t>Process</t>
   </si>
@@ -202,9 +202,6 @@
     <t xml:space="preserve">기준점 마킹률 관리 </t>
   </si>
   <si>
-    <t>검사 불량 미수신 점검 (SPC 비교)</t>
-  </si>
-  <si>
     <t>불량 구간 관리 (TAG_SECTION 수정 및 관리)</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>비전 ROI/초점/조리개 확인</t>
   </si>
   <si>
-    <t>이미지 인식률 점검 (OCR 로그 확인)</t>
-  </si>
-  <si>
     <t>OCR Vision</t>
   </si>
   <si>
@@ -247,18 +241,6 @@
     <t>롤프레스 비전 불량 single tag_section 생성여부 확인</t>
   </si>
   <si>
-    <t>OCR Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">노칭 OCR PC 에서 해당 일자에 정상 폴더 생산 후 이미지 수신 하는지 확인 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">인식률 확인 (MES or Davinci report) </t>
-  </si>
-  <si>
-    <t>OCR PC 에서 해당 일자에 정상 폴더 생산 후 이미지 수신 확인 (from ng vision)</t>
-  </si>
-  <si>
     <t xml:space="preserve">마킹기 알람 확인 (적색 알람 시 조치) </t>
   </si>
   <si>
@@ -272,6 +254,9 @@
   </si>
   <si>
     <t>Rollmap</t>
+  </si>
+  <si>
+    <t>이미지 인식률 점검</t>
   </si>
 </sst>
 </file>
@@ -593,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A70"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +593,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -625,7 +610,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -642,7 +627,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -659,7 +644,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -676,7 +661,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -693,7 +678,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -710,7 +695,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -727,7 +712,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -744,7 +729,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -761,7 +746,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -778,7 +763,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -795,7 +780,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -812,7 +797,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -829,7 +814,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -846,7 +831,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -863,7 +848,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
@@ -880,7 +865,7 @@
     </row>
     <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
@@ -897,7 +882,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -914,7 +899,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
@@ -931,7 +916,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
@@ -948,7 +933,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
@@ -965,7 +950,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
@@ -982,7 +967,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -999,7 +984,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
@@ -1016,7 +1001,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
@@ -1033,7 +1018,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
@@ -1050,7 +1035,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>17</v>
@@ -1067,7 +1052,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>17</v>
@@ -1084,7 +1069,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>17</v>
@@ -1101,7 +1086,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>17</v>
@@ -1118,7 +1103,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>17</v>
@@ -1135,7 +1120,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>17</v>
@@ -1152,7 +1137,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>17</v>
@@ -1169,7 +1154,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>17</v>
@@ -1186,7 +1171,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>17</v>
@@ -1203,7 +1188,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>17</v>
@@ -1220,7 +1205,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>17</v>
@@ -1237,7 +1222,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>20</v>
@@ -1254,7 +1239,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>20</v>
@@ -1271,7 +1256,7 @@
     </row>
     <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>20</v>
@@ -1288,7 +1273,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>20</v>
@@ -1305,7 +1290,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>20</v>
@@ -1322,7 +1307,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>20</v>
@@ -1339,7 +1324,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>43</v>
@@ -1356,7 +1341,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>43</v>
@@ -1365,7 +1350,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1373,7 +1358,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>43</v>
@@ -1390,7 +1375,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>43</v>
@@ -1399,7 +1384,7 @@
         <v>44</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1407,7 +1392,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>43</v>
@@ -1424,7 +1409,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>43</v>
@@ -1441,7 +1426,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>43</v>
@@ -1458,7 +1443,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>43</v>
@@ -1475,7 +1460,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>43</v>
@@ -1492,7 +1477,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>43</v>
@@ -1509,13 +1494,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>56</v>
@@ -1526,7 +1511,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>48</v>
@@ -1543,16 +1528,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1560,16 +1545,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1577,16 +1562,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1594,7 +1579,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>48</v>
@@ -1611,16 +1596,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1628,16 +1613,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1645,7 +1630,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>48</v>
@@ -1654,7 +1639,7 @@
         <v>50</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1662,7 +1647,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>48</v>
@@ -1671,7 +1656,7 @@
         <v>50</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1679,7 +1664,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>48</v>
@@ -1688,113 +1673,26 @@
         <v>50</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CS_Checklist.xlsx
+++ b/CS_Checklist.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="73">
   <si>
     <t>Process</t>
   </si>
@@ -172,12 +172,6 @@
     <t>INK MARKER</t>
   </si>
   <si>
-    <t>프린터 헤드 상태 확인(노즐, 대전판, 굴절판, 거터 잉크 묻음 확인)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">소모품 상태 확인 (INK/MAKEUP) </t>
-  </si>
-  <si>
     <t xml:space="preserve">마킹기 주변 ink 누수 육안 확인 </t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>검사불량 위치에 정상적으로 불량 구간 등록 여부 확인 (MES)</t>
   </si>
   <si>
-    <t xml:space="preserve">기준점 마킹률 관리 </t>
-  </si>
-  <si>
     <t>불량 구간 관리 (TAG_SECTION 수정 및 관리)</t>
   </si>
   <si>
@@ -235,9 +226,6 @@
     <t>비전 알람 발생 확인/불량위치에서 NG 비전에 패턴 인식 후 정지 확인</t>
   </si>
   <si>
-    <t>비전 알람 발생 확인/기준점 정상으로 인식하는지 확인</t>
-  </si>
-  <si>
     <t>롤프레스 비전 불량 single tag_section 생성여부 확인</t>
   </si>
   <si>
@@ -256,7 +244,16 @@
     <t>Rollmap</t>
   </si>
   <si>
-    <t>이미지 인식률 점검</t>
+    <t>기준점 인식률 관리</t>
+  </si>
+  <si>
+    <t>기준점 마킹 생성 및 인식률 관리 -  마킹 생성 및 인식 정상 확인 (비정상 case 확인:NM/MR/OI)</t>
+  </si>
+  <si>
+    <t>잉크마킹기 캐비넷내부 make up/ink 재고량 최소 4개 확인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잉크마킹 개별 Unit  Screen에 Recovery  이력 여부 확인(EHT 알람 발생 확인)  </t>
   </si>
 </sst>
 </file>
@@ -578,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,7 +590,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -610,7 +607,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -627,7 +624,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -644,7 +641,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -661,7 +658,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -678,7 +675,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -695,7 +692,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -712,7 +709,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -729,7 +726,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -746,7 +743,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -763,7 +760,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -780,7 +777,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -797,7 +794,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -814,7 +811,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -831,7 +828,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -848,7 +845,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
@@ -865,7 +862,7 @@
     </row>
     <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
@@ -882,7 +879,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -899,7 +896,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
@@ -916,7 +913,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
@@ -933,7 +930,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
@@ -950,7 +947,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
@@ -967,7 +964,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -984,7 +981,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
@@ -1001,7 +998,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
@@ -1018,7 +1015,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
@@ -1035,7 +1032,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>17</v>
@@ -1052,7 +1049,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>17</v>
@@ -1069,7 +1066,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>17</v>
@@ -1086,7 +1083,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>17</v>
@@ -1103,7 +1100,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>17</v>
@@ -1120,7 +1117,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>17</v>
@@ -1137,7 +1134,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>17</v>
@@ -1154,7 +1151,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>17</v>
@@ -1171,7 +1168,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>17</v>
@@ -1188,7 +1185,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>17</v>
@@ -1205,7 +1202,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>17</v>
@@ -1222,7 +1219,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>20</v>
@@ -1239,7 +1236,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>20</v>
@@ -1256,7 +1253,7 @@
     </row>
     <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>20</v>
@@ -1273,7 +1270,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>20</v>
@@ -1290,7 +1287,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>20</v>
@@ -1307,7 +1304,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>20</v>
@@ -1324,7 +1321,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>43</v>
@@ -1332,8 +1329,8 @@
       <c r="C44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>45</v>
+      <c r="D44" t="s">
+        <v>72</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1341,7 +1338,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>43</v>
@@ -1350,7 +1347,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1358,7 +1355,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>43</v>
@@ -1367,7 +1364,7 @@
         <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1375,7 +1372,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>43</v>
@@ -1384,7 +1381,7 @@
         <v>44</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1392,7 +1389,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>43</v>
@@ -1401,7 +1398,7 @@
         <v>44</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1409,16 +1406,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1426,16 +1423,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1443,16 +1440,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1460,16 +1457,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="D52" t="s">
+        <v>70</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1477,16 +1474,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1494,16 +1491,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1511,16 +1508,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1528,16 +1525,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1545,16 +1542,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1562,16 +1559,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1579,16 +1576,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -1596,16 +1593,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1613,16 +1610,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1630,16 +1627,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1647,37 +1644,23 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
+      <c r="D64" s="1"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
@@ -1690,9 +1673,6 @@
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D69" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CS_Checklist.xlsx
+++ b/CS_Checklist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1323,36 +1323,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>양극</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>탈리(Delamination)</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>H/W &amp; 클리닝</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>탈리비전 즉정지 알람 시 작업자 스크랩 조치 확인</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Verify Operator Scrap Action on Delamination Vision Stop Alarm</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
